--- a/documents/testovacie scenare/TS5-Preskladnenie tovaru.xlsx
+++ b/documents/testovacie scenare/TS5-Preskladnenie tovaru.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tis\testovacie scenáre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\d\t\tis\2023\sklad\documents\testovacie scenare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25BF03A-3C8F-4249-A76F-F6E07D255754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A2BD0C-E9C7-481E-AA04-779DE0392640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6B9AC995-C48A-4D81-9586-0FCD7364C34C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{6B9AC995-C48A-4D81-9586-0FCD7364C34C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Predpoklady:</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>5.</t>
-  </si>
-  <si>
-    <t>Testované dáta</t>
   </si>
   <si>
     <t xml:space="preserve">6. </t>
@@ -271,7 +268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -514,15 +511,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -536,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -586,7 +574,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -598,7 +585,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normálna" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -617,14 +604,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2904500</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2828300</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
@@ -669,7 +656,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motív Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -965,161 +952,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B99CECF-26F5-4450-9331-183C90F28EAA}">
-  <dimension ref="B1:F20"/>
+  <dimension ref="B1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="41" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" customWidth="1"/>
-    <col min="5" max="5" width="40.77734375" customWidth="1"/>
-    <col min="6" max="6" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="10.199999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:5" ht="10.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="2:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
-    <row r="4" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
+      <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="22" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="24" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="8" spans="2:6" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="9" spans="2:6" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="10" spans="2:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="14" t="s">
+    </row>
+    <row r="11" spans="2:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="25" t="s">
         <v>24</v>
       </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="11" spans="2:6" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="58.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:6" ht="61.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:6" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="2:6" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" ht="53.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:5" ht="58.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:5" ht="61.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:5" ht="34.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="53.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="71.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="45" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>